--- a/outcome/appendix/data/forecast/Gonorrhea.xlsx
+++ b/outcome/appendix/data/forecast/Gonorrhea.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">upper_95</t>
   </si>
   <si>
-    <t xml:space="preserve">disease_1</t>
+    <t xml:space="preserve">disease_en</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">color</t>
   </si>
   <si>
-    <t xml:space="preserve">淋病</t>
+    <t xml:space="preserve">Gonorrhea</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>10007.594288266</v>
+        <v>9530.95247183988</v>
       </c>
       <c r="C2" t="n">
-        <v>9036.75509916206</v>
+        <v>8761.63720628087</v>
       </c>
       <c r="D2" t="n">
-        <v>8704.30142973865</v>
+        <v>8354.38630486573</v>
       </c>
       <c r="E2" t="n">
-        <v>11132.5105391317</v>
+        <v>10300.2677373989</v>
       </c>
       <c r="F2" t="n">
-        <v>11495.0075923149</v>
+        <v>10707.518638814</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>8254</v>
       </c>
       <c r="I2" t="n">
-        <v>1753.59428826605</v>
+        <v>1276.95247183988</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>8118.6707374842</v>
+        <v>7264.2576841648</v>
       </c>
       <c r="C3" t="n">
-        <v>6776.83681424258</v>
+        <v>6475.29797050575</v>
       </c>
       <c r="D3" t="n">
-        <v>6415.04080760256</v>
+        <v>6057.64792643129</v>
       </c>
       <c r="E3" t="n">
-        <v>9911.86550251016</v>
+        <v>8053.21739782385</v>
       </c>
       <c r="F3" t="n">
-        <v>10261.6221260321</v>
+        <v>8470.86744189831</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>3524</v>
       </c>
       <c r="I3" t="n">
-        <v>4594.6707374842</v>
+        <v>3740.2576841648</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>9533.42965510502</v>
+        <v>9194.96255569234</v>
       </c>
       <c r="C4" t="n">
-        <v>8420.75733000934</v>
+        <v>8298.5760133426</v>
       </c>
       <c r="D4" t="n">
-        <v>8027.65152706402</v>
+        <v>7824.05764131593</v>
       </c>
       <c r="E4" t="n">
-        <v>10706.4664690045</v>
+        <v>10091.3490980421</v>
       </c>
       <c r="F4" t="n">
-        <v>11159.285110339</v>
+        <v>10565.8674700687</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>4661</v>
       </c>
       <c r="I4" t="n">
-        <v>4872.42965510502</v>
+        <v>4533.96255569234</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>9630.64555611977</v>
+        <v>9370.58086639731</v>
       </c>
       <c r="C5" t="n">
-        <v>8469.79135818087</v>
+        <v>8344.85194563663</v>
       </c>
       <c r="D5" t="n">
-        <v>8043.89384174633</v>
+        <v>7801.86385442305</v>
       </c>
       <c r="E5" t="n">
-        <v>10966.8714731623</v>
+        <v>10396.309787158</v>
       </c>
       <c r="F5" t="n">
-        <v>11480.1532192776</v>
+        <v>10939.2978783716</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>6267</v>
       </c>
       <c r="I5" t="n">
-        <v>3363.64555611977</v>
+        <v>3103.58086639731</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>10365.7262111447</v>
+        <v>10114.7475102259</v>
       </c>
       <c r="C6" t="n">
-        <v>8913.73524899505</v>
+        <v>8927.42258787786</v>
       </c>
       <c r="D6" t="n">
-        <v>8525.00885965625</v>
+        <v>8298.89074073254</v>
       </c>
       <c r="E6" t="n">
-        <v>12062.6156867796</v>
+        <v>11302.0724325739</v>
       </c>
       <c r="F6" t="n">
-        <v>12645.3983203711</v>
+        <v>11930.6042797192</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>8104</v>
       </c>
       <c r="I6" t="n">
-        <v>2261.72621114475</v>
+        <v>2010.74751022589</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>10197.0667463178</v>
+        <v>10055.1234572994</v>
       </c>
       <c r="C7" t="n">
-        <v>8385.80548234183</v>
+        <v>8762.49756048071</v>
       </c>
       <c r="D7" t="n">
-        <v>7923.69244428466</v>
+        <v>8078.22274462944</v>
       </c>
       <c r="E7" t="n">
-        <v>12023.6980020704</v>
+        <v>11347.7493541181</v>
       </c>
       <c r="F7" t="n">
-        <v>12664.2368927106</v>
+        <v>12032.0241699694</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>9292</v>
       </c>
       <c r="I7" t="n">
-        <v>905.06674631776</v>
+        <v>763.123457299405</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>10996.5933481583</v>
+        <v>11063.9066591313</v>
       </c>
       <c r="C8" t="n">
-        <v>8944.95203308898</v>
+        <v>9703.73154695796</v>
       </c>
       <c r="D8" t="n">
-        <v>8423.82461959183</v>
+        <v>8983.69833649968</v>
       </c>
       <c r="E8" t="n">
-        <v>13159.0936646802</v>
+        <v>12424.0817713046</v>
       </c>
       <c r="F8" t="n">
-        <v>13840.4862599809</v>
+        <v>13144.1149817629</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>10724</v>
       </c>
       <c r="I8" t="n">
-        <v>272.593348158349</v>
+        <v>339.906659131295</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,28 +651,28 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>11181.6218926256</v>
+        <v>11237.800904961</v>
       </c>
       <c r="C9" t="n">
-        <v>8999.84684659647</v>
+        <v>9817.88829606921</v>
       </c>
       <c r="D9" t="n">
-        <v>8570.64417996418</v>
+        <v>9066.23196505681</v>
       </c>
       <c r="E9" t="n">
-        <v>13401.9560517735</v>
+        <v>12657.7135138529</v>
       </c>
       <c r="F9" t="n">
-        <v>14116.4947199412</v>
+        <v>13409.3698448653</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>10621</v>
+        <v>10724</v>
       </c>
       <c r="I9" t="n">
-        <v>560.621892625621</v>
+        <v>513.800904961043</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>10594.1579612188</v>
+        <v>10640.4168724454</v>
       </c>
       <c r="C10" t="n">
-        <v>8952.80628450128</v>
+        <v>9144.97423611798</v>
       </c>
       <c r="D10" t="n">
-        <v>8487.8502397769</v>
+        <v>8353.33472378304</v>
       </c>
       <c r="E10" t="n">
-        <v>12452.9477358144</v>
+        <v>12135.8595087728</v>
       </c>
       <c r="F10" t="n">
-        <v>13204.4933700068</v>
+        <v>12927.4990211077</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>11643</v>
       </c>
       <c r="I10" t="n">
-        <v>-1048.84203878124</v>
+        <v>-1002.58312755462</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>10569.3457562885</v>
+        <v>10297.9688171244</v>
       </c>
       <c r="C11" t="n">
-        <v>8947.39207028973</v>
+        <v>8714.91324504563</v>
       </c>
       <c r="D11" t="n">
-        <v>8185.54488429203</v>
+        <v>7876.89424609744</v>
       </c>
       <c r="E11" t="n">
-        <v>12151.4011063932</v>
+        <v>11881.0243892031</v>
       </c>
       <c r="F11" t="n">
-        <v>12843.4145924244</v>
+        <v>12719.0433881513</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,10 +736,10 @@
         <v>10551</v>
       </c>
       <c r="I11" t="n">
-        <v>18.3457562885487</v>
+        <v>-253.031182875622</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>10692.6184623557</v>
+        <v>10616.1031347758</v>
       </c>
       <c r="C12" t="n">
-        <v>8965.66115613049</v>
+        <v>8952.90106590911</v>
       </c>
       <c r="D12" t="n">
-        <v>8487.69690739402</v>
+        <v>8072.45507438271</v>
       </c>
       <c r="E12" t="n">
-        <v>12498.0925313524</v>
+        <v>12279.3052036426</v>
       </c>
       <c r="F12" t="n">
-        <v>13337.4228243406</v>
+        <v>13159.751195169</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>11260</v>
       </c>
       <c r="I12" t="n">
-        <v>-567.381537644254</v>
+        <v>-643.896865224162</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>10481.5813374908</v>
+        <v>10661.4961041009</v>
       </c>
       <c r="C13" t="n">
-        <v>9031.66771935569</v>
+        <v>8934.13763765764</v>
       </c>
       <c r="D13" t="n">
-        <v>8164.11859751056</v>
+        <v>8019.7293007648</v>
       </c>
       <c r="E13" t="n">
-        <v>12341.792736164</v>
+        <v>12388.8545705442</v>
       </c>
       <c r="F13" t="n">
-        <v>13216.1325239538</v>
+        <v>13303.262907437</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>11691</v>
       </c>
       <c r="I13" t="n">
-        <v>-1209.41866250924</v>
+        <v>-1029.5038958991</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>10016.4949406034</v>
+        <v>9550.65943491708</v>
       </c>
       <c r="C14" t="n">
-        <v>8211.1556957425</v>
+        <v>7713.03652975637</v>
       </c>
       <c r="D14" t="n">
-        <v>7468.68204983339</v>
+        <v>6740.25772490059</v>
       </c>
       <c r="E14" t="n">
-        <v>12300.4776729731</v>
+        <v>11388.2823400778</v>
       </c>
       <c r="F14" t="n">
-        <v>13244.5561443896</v>
+        <v>12361.0611449336</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>10284</v>
       </c>
       <c r="I14" t="n">
-        <v>-267.505059396559</v>
+        <v>-733.340565082915</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>7944.49693970956</v>
+        <v>7219.62524286063</v>
       </c>
       <c r="C15" t="n">
-        <v>4630.80746568601</v>
+        <v>5314.79701654783</v>
       </c>
       <c r="D15" t="n">
-        <v>3640.83720372166</v>
+        <v>4306.44186367925</v>
       </c>
       <c r="E15" t="n">
-        <v>11099.0885427551</v>
+        <v>9124.45346917343</v>
       </c>
       <c r="F15" t="n">
-        <v>11694.5276584675</v>
+        <v>10132.808622042</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,10 +864,10 @@
         <v>7650</v>
       </c>
       <c r="I15" t="n">
-        <v>294.496939709565</v>
+        <v>-430.374757139371</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>9277.00244426004</v>
+        <v>9163.59375541315</v>
       </c>
       <c r="C16" t="n">
-        <v>6893.3667927356</v>
+        <v>7169.82650129757</v>
       </c>
       <c r="D16" t="n">
-        <v>5848.86933656095</v>
+        <v>6114.38987108779</v>
       </c>
       <c r="E16" t="n">
-        <v>11238.4882030133</v>
+        <v>11157.3610095287</v>
       </c>
       <c r="F16" t="n">
-        <v>12062.2859352899</v>
+        <v>12212.7976397385</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>10878</v>
       </c>
       <c r="I16" t="n">
-        <v>-1600.99755573996</v>
+        <v>-1714.40624458685</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>9366.48801542446</v>
+        <v>9318.84806863914</v>
       </c>
       <c r="C17" t="n">
-        <v>7091.34823313891</v>
+        <v>7232.87379452478</v>
       </c>
       <c r="D17" t="n">
-        <v>5988.47449897898</v>
+        <v>6128.62571640485</v>
       </c>
       <c r="E17" t="n">
-        <v>11313.9879939871</v>
+        <v>11404.8223427535</v>
       </c>
       <c r="F17" t="n">
-        <v>12360.9781204469</v>
+        <v>12509.0704208734</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>10874</v>
       </c>
       <c r="I17" t="n">
-        <v>-1507.51198457554</v>
+        <v>-1555.15193136086</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>10088.479999392</v>
+        <v>10072.7847391952</v>
       </c>
       <c r="C18" t="n">
-        <v>7924.1149542839</v>
+        <v>7896.15773286594</v>
       </c>
       <c r="D18" t="n">
-        <v>6765.04244062282</v>
+        <v>6743.92099708763</v>
       </c>
       <c r="E18" t="n">
-        <v>12322.7636278264</v>
+        <v>12249.4117455245</v>
       </c>
       <c r="F18" t="n">
-        <v>13462.2676642113</v>
+        <v>13401.6484813029</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>10773</v>
       </c>
       <c r="I18" t="n">
-        <v>-684.520000607998</v>
+        <v>-700.21526080476</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>9808.72217385888</v>
+        <v>10020.13423941</v>
       </c>
       <c r="C19" t="n">
-        <v>7282.05237792705</v>
+        <v>7766.20761302931</v>
       </c>
       <c r="D19" t="n">
-        <v>6075.96636602989</v>
+        <v>6573.05093018339</v>
       </c>
       <c r="E19" t="n">
-        <v>12342.5347654729</v>
+        <v>12274.0608657907</v>
       </c>
       <c r="F19" t="n">
-        <v>13237.5762333958</v>
+        <v>13467.2175486366</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>10950</v>
       </c>
       <c r="I19" t="n">
-        <v>-1141.27782614112</v>
+        <v>-929.865760589988</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>10571.4449207048</v>
+        <v>11032.9142479884</v>
       </c>
       <c r="C20" t="n">
-        <v>8218.73978559397</v>
+        <v>8709.29349620412</v>
       </c>
       <c r="D20" t="n">
-        <v>7429.22405201669</v>
+        <v>7479.24297195847</v>
       </c>
       <c r="E20" t="n">
-        <v>13386.5267796642</v>
+        <v>13356.5349997726</v>
       </c>
       <c r="F20" t="n">
-        <v>14633.3226354009</v>
+        <v>14586.5855240183</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>11747</v>
       </c>
       <c r="I20" t="n">
-        <v>-1175.5550792952</v>
+        <v>-714.085752011639</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>10614.2702630281</v>
+        <v>11201.6669414924</v>
       </c>
       <c r="C21" t="n">
-        <v>8209.89341054288</v>
+        <v>8808.47057971823</v>
       </c>
       <c r="D21" t="n">
-        <v>7303.48939909429</v>
+        <v>7541.58895234307</v>
       </c>
       <c r="E21" t="n">
-        <v>13457.7187404658</v>
+        <v>13594.8633032665</v>
       </c>
       <c r="F21" t="n">
-        <v>14745.7291016758</v>
+        <v>14861.7449306417</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>12019</v>
       </c>
       <c r="I21" t="n">
-        <v>-1404.72973697189</v>
+        <v>-817.333058507611</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>9955.41741065032</v>
+        <v>10599.0642046048</v>
       </c>
       <c r="C22" t="n">
-        <v>7447.26535507013</v>
+        <v>8132.94092801273</v>
       </c>
       <c r="D22" t="n">
-        <v>6113.97222487447</v>
+        <v>6827.45412389584</v>
       </c>
       <c r="E22" t="n">
-        <v>12484.566708905</v>
+        <v>13065.1874811969</v>
       </c>
       <c r="F22" t="n">
-        <v>13817.8598391007</v>
+        <v>14370.6742853138</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>11744</v>
       </c>
       <c r="I22" t="n">
-        <v>-1788.58258934968</v>
+        <v>-1144.93579539519</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>10002.8825350802</v>
+        <v>10256.2740656866</v>
       </c>
       <c r="C23" t="n">
-        <v>7256.80378640454</v>
+        <v>7717.28750939961</v>
       </c>
       <c r="D23" t="n">
-        <v>5877.36942800611</v>
+        <v>6373.22921494023</v>
       </c>
       <c r="E23" t="n">
-        <v>12701.8389241617</v>
+        <v>12795.2606219737</v>
       </c>
       <c r="F23" t="n">
-        <v>13847.8652084383</v>
+        <v>14139.318916433</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>10720</v>
       </c>
       <c r="I23" t="n">
-        <v>-717.117464919811</v>
+        <v>-463.725934313368</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>10060.2910280944</v>
+        <v>10578.2175149721</v>
       </c>
       <c r="C24" t="n">
-        <v>7440.19001908949</v>
+        <v>7970.7251604816</v>
       </c>
       <c r="D24" t="n">
-        <v>6019.11779259506</v>
+        <v>6590.40208704343</v>
       </c>
       <c r="E24" t="n">
-        <v>12809.1286930382</v>
+        <v>13185.7098694625</v>
       </c>
       <c r="F24" t="n">
-        <v>14230.2009195326</v>
+        <v>14566.0329429007</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>11119</v>
       </c>
       <c r="I24" t="n">
-        <v>-1058.70897190556</v>
+        <v>-540.782485027938</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>9876.74970530732</v>
+        <v>10626.3625271436</v>
       </c>
       <c r="C25" t="n">
-        <v>7179.06462027171</v>
+        <v>7955.07929735237</v>
       </c>
       <c r="D25" t="n">
-        <v>5721.53284428045</v>
+        <v>6540.98737435235</v>
       </c>
       <c r="E25" t="n">
-        <v>12685.7507511609</v>
+        <v>13297.6457569348</v>
       </c>
       <c r="F25" t="n">
-        <v>14143.2825271521</v>
+        <v>14711.7376799348</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>11264</v>
       </c>
       <c r="I25" t="n">
-        <v>-1387.25029469268</v>
+        <v>-637.637472856417</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>9269.2678943016</v>
+        <v>9514.66904805897</v>
       </c>
       <c r="C26" t="n">
-        <v>6045.63192498204</v>
+        <v>6736.81785256018</v>
       </c>
       <c r="D26" t="n">
-        <v>4512.22825302936</v>
+        <v>5266.3122562076</v>
       </c>
       <c r="E26" t="n">
-        <v>11838.9689022521</v>
+        <v>12292.5202435578</v>
       </c>
       <c r="F26" t="n">
-        <v>13372.3725742048</v>
+        <v>13763.0258399103</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,10 +1216,10 @@
         <v>9273</v>
       </c>
       <c r="I26" t="n">
-        <v>-3.73210569840012</v>
+        <v>241.669048058968</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>7635.25304635626</v>
+        <v>7181.02010181142</v>
       </c>
       <c r="C27" t="n">
-        <v>3459.96280131346</v>
+        <v>4332.88710470456</v>
       </c>
       <c r="D27" t="n">
-        <v>1870.60080867288</v>
+        <v>2825.17656996152</v>
       </c>
       <c r="E27" t="n">
-        <v>11331.2873720508</v>
+        <v>10029.1530989183</v>
       </c>
       <c r="F27" t="n">
-        <v>12336.7818717148</v>
+        <v>11536.8636336613</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>6979</v>
       </c>
       <c r="I27" t="n">
-        <v>656.25304635626</v>
+        <v>202.020101811424</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>8996.44567836078</v>
+        <v>9123.83572168115</v>
       </c>
       <c r="C28" t="n">
-        <v>5554.98262931099</v>
+        <v>6191.99737561356</v>
       </c>
       <c r="D28" t="n">
-        <v>3904.31391693881</v>
+        <v>4639.97590575245</v>
       </c>
       <c r="E28" t="n">
-        <v>11791.3574753624</v>
+        <v>12055.6740677487</v>
       </c>
       <c r="F28" t="n">
-        <v>13442.0261877346</v>
+        <v>13607.6955376098</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>8886</v>
       </c>
       <c r="I28" t="n">
-        <v>110.445678360784</v>
+        <v>237.835721681151</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>9095.09429842321</v>
+        <v>9280.20801097634</v>
       </c>
       <c r="C29" t="n">
-        <v>5750.1667233029</v>
+        <v>6263.25879097663</v>
       </c>
       <c r="D29" t="n">
-        <v>4038.82701531277</v>
+        <v>4666.18234602166</v>
       </c>
       <c r="E29" t="n">
-        <v>12215.7620471647</v>
+        <v>12297.157230976</v>
       </c>
       <c r="F29" t="n">
-        <v>13927.1017551548</v>
+        <v>13894.233675931</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>7821</v>
       </c>
       <c r="I29" t="n">
-        <v>1274.09429842321</v>
+        <v>1459.20801097634</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>9680.60301429571</v>
+        <v>10035.7523536927</v>
       </c>
       <c r="C30" t="n">
-        <v>6106.58659085581</v>
+        <v>6931.9640496943</v>
       </c>
       <c r="D30" t="n">
-        <v>4336.3594538122</v>
+        <v>5288.91777049869</v>
       </c>
       <c r="E30" t="n">
-        <v>12799.5329734786</v>
+        <v>13139.5406576911</v>
       </c>
       <c r="F30" t="n">
-        <v>14564.8910546884</v>
+        <v>14782.5869368867</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>8395</v>
       </c>
       <c r="I30" t="n">
-        <v>1285.60301429571</v>
+        <v>1640.75235369271</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>9513.00905675137</v>
+        <v>9983.38344233699</v>
       </c>
       <c r="C31" t="n">
-        <v>5556.92622683945</v>
+        <v>6800.50022082541</v>
       </c>
       <c r="D31" t="n">
-        <v>3732.52437037402</v>
+        <v>5115.58362149365</v>
       </c>
       <c r="E31" t="n">
-        <v>12811.249902546</v>
+        <v>13166.2666638486</v>
       </c>
       <c r="F31" t="n">
-        <v>14274.0823722013</v>
+        <v>14851.1832631803</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>8988</v>
       </c>
       <c r="I31" t="n">
-        <v>525.009056751365</v>
+        <v>995.383442336994</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>10269.0169432034</v>
+        <v>10995.1820962841</v>
       </c>
       <c r="C32" t="n">
-        <v>6977.62585083774</v>
+        <v>7739.08932028672</v>
       </c>
       <c r="D32" t="n">
-        <v>5102.32302448805</v>
+        <v>6015.41792381094</v>
       </c>
       <c r="E32" t="n">
-        <v>14062.6885816684</v>
+        <v>14251.2748722814</v>
       </c>
       <c r="F32" t="n">
-        <v>15937.9914080181</v>
+        <v>15974.9462687572</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>9263</v>
       </c>
       <c r="I32" t="n">
-        <v>1006.01694320343</v>
+        <v>1732.18209628406</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>10344.8055936902</v>
+        <v>11163.0582957641</v>
       </c>
       <c r="C33" t="n">
-        <v>6902.84707743187</v>
+        <v>7835.33387631035</v>
       </c>
       <c r="D33" t="n">
-        <v>4977.0388546234</v>
+        <v>6073.74297833309</v>
       </c>
       <c r="E33" t="n">
-        <v>14178.7237382198</v>
+        <v>14490.7827152179</v>
       </c>
       <c r="F33" t="n">
-        <v>16104.5319610283</v>
+        <v>16252.3736131952</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>9275</v>
       </c>
       <c r="I33" t="n">
-        <v>1069.80559369015</v>
+        <v>1888.05829576413</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>9749.38112938287</v>
+        <v>10560.5732762524</v>
       </c>
       <c r="C34" t="n">
-        <v>6036.34176889676</v>
+        <v>7159.51551570079</v>
       </c>
       <c r="D34" t="n">
-        <v>4059.08435257305</v>
+        <v>5359.10429190535</v>
       </c>
       <c r="E34" t="n">
-        <v>13506.5981098005</v>
+        <v>13961.6310368041</v>
       </c>
       <c r="F34" t="n">
-        <v>15483.8555261242</v>
+        <v>15762.0422605995</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>8598</v>
       </c>
       <c r="I34" t="n">
-        <v>1151.38112938287</v>
+        <v>1962.57327625245</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>9765.59579449861</v>
+        <v>10218.5036866576</v>
       </c>
       <c r="C35" t="n">
-        <v>5666.69189662755</v>
+        <v>6743.6741491312</v>
       </c>
       <c r="D35" t="n">
-        <v>3638.50308947863</v>
+        <v>4904.21050558411</v>
       </c>
       <c r="E35" t="n">
-        <v>13329.3716125163</v>
+        <v>13693.333224184</v>
       </c>
       <c r="F35" t="n">
-        <v>15357.5604196652</v>
+        <v>15532.7968677311</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>7959</v>
       </c>
       <c r="I35" t="n">
-        <v>1806.59579449861</v>
+        <v>2259.50368665761</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>9818.77845394584</v>
+        <v>10540.8536380959</v>
       </c>
       <c r="C36" t="n">
-        <v>5792.30651369092</v>
+        <v>6994.67164104449</v>
       </c>
       <c r="D36" t="n">
-        <v>3715.8003862554</v>
+        <v>5117.43628704187</v>
       </c>
       <c r="E36" t="n">
-        <v>13637.5334109768</v>
+        <v>14087.0356351472</v>
       </c>
       <c r="F36" t="n">
-        <v>15714.0395384123</v>
+        <v>15964.2709891498</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>7630</v>
       </c>
       <c r="I36" t="n">
-        <v>2188.77845394584</v>
+        <v>2910.85363809585</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>9736.30541668618</v>
+        <v>10588.7502398455</v>
       </c>
       <c r="C37" t="n">
-        <v>5861.82414840713</v>
+        <v>6974.65727770849</v>
       </c>
       <c r="D37" t="n">
-        <v>3739.74442452622</v>
+        <v>5061.47203035884</v>
       </c>
       <c r="E37" t="n">
-        <v>13879.2321916648</v>
+        <v>14202.8432019824</v>
       </c>
       <c r="F37" t="n">
-        <v>16001.3119155457</v>
+        <v>16116.0284493321</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>6027</v>
       </c>
       <c r="I37" t="n">
-        <v>3709.30541668618</v>
+        <v>4561.75023984545</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>9266.2725701654</v>
+        <v>9476.59010946179</v>
       </c>
       <c r="C38" t="n">
-        <v>5193.0278283249</v>
+        <v>5757.58893157749</v>
       </c>
       <c r="D38" t="n">
-        <v>2953.51916389084</v>
+        <v>3788.86862943089</v>
       </c>
       <c r="E38" t="n">
-        <v>13654.092969809</v>
+        <v>13195.5912873461</v>
       </c>
       <c r="F38" t="n">
-        <v>15893.6016342431</v>
+        <v>15164.3115894927</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>4762</v>
       </c>
       <c r="I38" t="n">
-        <v>4504.2725701654</v>
+        <v>4714.59010946179</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>7489.18864749543</v>
+        <v>7142.80364653582</v>
       </c>
       <c r="C39" t="n">
-        <v>1932.26974644623</v>
+        <v>3350.87805198494</v>
       </c>
       <c r="D39" t="n">
-        <v>-384.028529980651</v>
+        <v>1343.55389553803</v>
       </c>
       <c r="E39" t="n">
-        <v>11174.5185077488</v>
+        <v>10934.7292410867</v>
       </c>
       <c r="F39" t="n">
-        <v>12999.7512244384</v>
+        <v>12942.0533975336</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>6589</v>
       </c>
       <c r="I39" t="n">
-        <v>900.18864749543</v>
+        <v>553.803646535824</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>8863.43803262584</v>
+        <v>9085.86608492528</v>
       </c>
       <c r="C40" t="n">
-        <v>4001.07573049479</v>
+        <v>5209.24793280471</v>
       </c>
       <c r="D40" t="n">
-        <v>1602.10495557978</v>
+        <v>3157.09024456983</v>
       </c>
       <c r="E40" t="n">
-        <v>13064.6030663901</v>
+        <v>12962.4842370458</v>
       </c>
       <c r="F40" t="n">
-        <v>15463.5738413051</v>
+        <v>15014.6419252807</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,9 +1664,297 @@
         <v>8029</v>
       </c>
       <c r="I40" t="n">
-        <v>834.438032625836</v>
+        <v>1056.86608492528</v>
       </c>
       <c r="J40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9242.50749420753</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5279.30666174293</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3181.31487116326</v>
+      </c>
+      <c r="E41" t="n">
+        <v>13205.7083266721</v>
+      </c>
+      <c r="F41" t="n">
+        <v>15303.7001172518</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7931</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1311.50749420753</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9998.05551179649</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5946.09451357659</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3801.11592950422</v>
+      </c>
+      <c r="E42" t="n">
+        <v>14050.0165100164</v>
+      </c>
+      <c r="F42" t="n">
+        <v>16194.9950940888</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9077</v>
+      </c>
+      <c r="I42" t="n">
+        <v>921.055511796492</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9945.49256850535</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5811.48985497258</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3623.08101023779</v>
+      </c>
+      <c r="E43" t="n">
+        <v>14079.4952820381</v>
+      </c>
+      <c r="F43" t="n">
+        <v>16267.9041267729</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>8863</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1082.49256850535</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B44" t="n">
+        <v>10957.1559267488</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6746.57480528806</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4517.62780012182</v>
+      </c>
+      <c r="E44" t="n">
+        <v>15167.7370482095</v>
+      </c>
+      <c r="F44" t="n">
+        <v>17396.6840533757</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>10104</v>
+      </c>
+      <c r="I44" t="n">
+        <v>853.155926748766</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B45" t="n">
+        <v>11125.0813631004</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6839.44969741911</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4570.77333401203</v>
+      </c>
+      <c r="E45" t="n">
+        <v>15410.7130287818</v>
+      </c>
+      <c r="F45" t="n">
+        <v>17679.3893921888</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10924</v>
+      </c>
+      <c r="I45" t="n">
+        <v>201.081363100433</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B46" t="n">
+        <v>10522.7288037819</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6160.34933128612</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3851.04513309387</v>
+      </c>
+      <c r="E46" t="n">
+        <v>14885.1082762778</v>
+      </c>
+      <c r="F46" t="n">
+        <v>17194.41247447</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>10147</v>
+      </c>
+      <c r="I46" t="n">
+        <v>375.728803781936</v>
+      </c>
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B47" t="n">
+        <v>10180.7137859898</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5740.9201937634</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3390.6354360347</v>
+      </c>
+      <c r="E47" t="n">
+        <v>14620.5073782162</v>
+      </c>
+      <c r="F47" t="n">
+        <v>16970.7921359449</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10328</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-147.286214010204</v>
+      </c>
+      <c r="J47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B48" t="n">
+        <v>10503.0042965122</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5987.85906474755</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3597.6855585449</v>
+      </c>
+      <c r="E48" t="n">
+        <v>15018.1495282768</v>
+      </c>
+      <c r="F48" t="n">
+        <v>17408.3230344795</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>10065</v>
+      </c>
+      <c r="I48" t="n">
+        <v>438.004296512192</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B49" t="n">
+        <v>10550.8204182961</v>
+      </c>
+      <c r="C49" t="n">
+        <v>5963.51346751659</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3535.13985476191</v>
+      </c>
+      <c r="E49" t="n">
+        <v>15138.1273690755</v>
+      </c>
+      <c r="F49" t="n">
+        <v>17566.5009818302</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>9414</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1136.82041829606</v>
+      </c>
+      <c r="J49" t="s">
         <v>11</v>
       </c>
     </row>

--- a/outcome/appendix/data/forecast/Gonorrhea.xlsx
+++ b/outcome/appendix/data/forecast/Gonorrhea.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>9530.95247183988</v>
+        <v>9530.32436790185</v>
       </c>
       <c r="C2" t="n">
-        <v>8761.63720628087</v>
+        <v>8761.26173773874</v>
       </c>
       <c r="D2" t="n">
-        <v>8354.38630486573</v>
+        <v>8354.14457342375</v>
       </c>
       <c r="E2" t="n">
-        <v>10300.2677373989</v>
+        <v>10299.386998065</v>
       </c>
       <c r="F2" t="n">
-        <v>10707.518638814</v>
+        <v>10706.50416238</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>8254</v>
       </c>
       <c r="I2" t="n">
-        <v>1276.95247183988</v>
+        <v>1276.32436790185</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>7264.2576841648</v>
+        <v>7262.756671434</v>
       </c>
       <c r="C3" t="n">
-        <v>6475.29797050575</v>
+        <v>6474.10597791521</v>
       </c>
       <c r="D3" t="n">
-        <v>6057.64792643129</v>
+        <v>6056.61951922156</v>
       </c>
       <c r="E3" t="n">
-        <v>8053.21739782385</v>
+        <v>8051.40736495278</v>
       </c>
       <c r="F3" t="n">
-        <v>8470.86744189831</v>
+        <v>8468.89382364643</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>3524</v>
       </c>
       <c r="I3" t="n">
-        <v>3740.2576841648</v>
+        <v>3738.756671434</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>9194.96255569234</v>
+        <v>9194.11682366052</v>
       </c>
       <c r="C4" t="n">
-        <v>8298.5760133426</v>
+        <v>8297.83477162531</v>
       </c>
       <c r="D4" t="n">
-        <v>7824.05764131593</v>
+        <v>7823.37171342989</v>
       </c>
       <c r="E4" t="n">
-        <v>10091.3490980421</v>
+        <v>10090.3988756957</v>
       </c>
       <c r="F4" t="n">
-        <v>10565.8674700687</v>
+        <v>10564.8619338912</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>4661</v>
       </c>
       <c r="I4" t="n">
-        <v>4533.96255569234</v>
+        <v>4533.11682366052</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>9370.58086639731</v>
+        <v>9370.06704691985</v>
       </c>
       <c r="C5" t="n">
-        <v>8344.85194563663</v>
+        <v>8344.32193522435</v>
       </c>
       <c r="D5" t="n">
-        <v>7801.86385442305</v>
+        <v>7801.32527304759</v>
       </c>
       <c r="E5" t="n">
-        <v>10396.309787158</v>
+        <v>10395.8121586154</v>
       </c>
       <c r="F5" t="n">
-        <v>10939.2978783716</v>
+        <v>10938.8088207921</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>6267</v>
       </c>
       <c r="I5" t="n">
-        <v>3103.58086639731</v>
+        <v>3103.06704691985</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>10114.7475102259</v>
+        <v>10114.3566839253</v>
       </c>
       <c r="C6" t="n">
-        <v>8927.42258787786</v>
+        <v>8926.81108203001</v>
       </c>
       <c r="D6" t="n">
-        <v>8298.89074073254</v>
+        <v>8298.162414189</v>
       </c>
       <c r="E6" t="n">
-        <v>11302.0724325739</v>
+        <v>11301.9022858205</v>
       </c>
       <c r="F6" t="n">
-        <v>11930.6042797192</v>
+        <v>11930.5509536615</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>8104</v>
       </c>
       <c r="I6" t="n">
-        <v>2010.74751022589</v>
+        <v>2010.35668392527</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>10055.1234572994</v>
+        <v>10054.3002180641</v>
       </c>
       <c r="C7" t="n">
-        <v>8762.49756048071</v>
+        <v>8761.38564665993</v>
       </c>
       <c r="D7" t="n">
-        <v>8078.22274462944</v>
+        <v>8076.95801571399</v>
       </c>
       <c r="E7" t="n">
-        <v>11347.7493541181</v>
+        <v>11347.2147894682</v>
       </c>
       <c r="F7" t="n">
-        <v>12032.0241699694</v>
+        <v>12031.6424204141</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>9292</v>
       </c>
       <c r="I7" t="n">
-        <v>763.123457299405</v>
+        <v>762.300218064058</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>11063.9066591313</v>
+        <v>11063.2297938878</v>
       </c>
       <c r="C8" t="n">
-        <v>9703.73154695796</v>
+        <v>9702.77367469375</v>
       </c>
       <c r="D8" t="n">
-        <v>8983.69833649968</v>
+        <v>8982.5917081044</v>
       </c>
       <c r="E8" t="n">
-        <v>12424.0817713046</v>
+        <v>12423.6859130818</v>
       </c>
       <c r="F8" t="n">
-        <v>13144.1149817629</v>
+        <v>13143.8678796711</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>10724</v>
       </c>
       <c r="I8" t="n">
-        <v>339.906659131295</v>
+        <v>339.229793887755</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>11237.800904961</v>
+        <v>11237.1910279643</v>
       </c>
       <c r="C9" t="n">
-        <v>9817.88829606921</v>
+        <v>9817.05087284701</v>
       </c>
       <c r="D9" t="n">
-        <v>9066.23196505681</v>
+        <v>9065.27408613903</v>
       </c>
       <c r="E9" t="n">
-        <v>12657.7135138529</v>
+        <v>12657.3311830816</v>
       </c>
       <c r="F9" t="n">
-        <v>13409.3698448653</v>
+        <v>13409.1079697896</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>10724</v>
       </c>
       <c r="I9" t="n">
-        <v>513.800904961043</v>
+        <v>513.191027964305</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>10640.4168724454</v>
+        <v>10639.721596878</v>
       </c>
       <c r="C10" t="n">
-        <v>9144.97423611798</v>
+        <v>9144.0626266287</v>
       </c>
       <c r="D10" t="n">
-        <v>8353.33472378304</v>
+        <v>8352.30859403316</v>
       </c>
       <c r="E10" t="n">
-        <v>12135.8595087728</v>
+        <v>12135.3805671273</v>
       </c>
       <c r="F10" t="n">
-        <v>12927.4990211077</v>
+        <v>12927.1345997228</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>11643</v>
       </c>
       <c r="I10" t="n">
-        <v>-1002.58312755462</v>
+        <v>-1003.27840312201</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>10297.9688171244</v>
+        <v>10297.5169028534</v>
       </c>
       <c r="C11" t="n">
-        <v>8714.91324504563</v>
+        <v>8714.16517402279</v>
       </c>
       <c r="D11" t="n">
-        <v>7876.89424609744</v>
+        <v>7875.98939916025</v>
       </c>
       <c r="E11" t="n">
-        <v>11881.0243892031</v>
+        <v>11880.8686316841</v>
       </c>
       <c r="F11" t="n">
-        <v>12719.0433881513</v>
+        <v>12719.0444065466</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>10551</v>
       </c>
       <c r="I11" t="n">
-        <v>-253.031182875622</v>
+        <v>-253.483097146556</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>10616.1031347758</v>
+        <v>10615.6559302727</v>
       </c>
       <c r="C12" t="n">
-        <v>8952.90106590911</v>
+        <v>8952.05178873404</v>
       </c>
       <c r="D12" t="n">
-        <v>8072.45507438271</v>
+        <v>8071.3929527921</v>
       </c>
       <c r="E12" t="n">
-        <v>12279.3052036426</v>
+        <v>12279.2600718113</v>
       </c>
       <c r="F12" t="n">
-        <v>13159.751195169</v>
+        <v>13159.9189077533</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>11260</v>
       </c>
       <c r="I12" t="n">
-        <v>-643.896865224162</v>
+        <v>-644.344069727311</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>10661.4961041009</v>
+        <v>10660.7408155837</v>
       </c>
       <c r="C13" t="n">
-        <v>8934.13763765764</v>
+        <v>8932.93988447643</v>
       </c>
       <c r="D13" t="n">
-        <v>8019.7293007648</v>
+        <v>8018.29732093903</v>
       </c>
       <c r="E13" t="n">
-        <v>12388.8545705442</v>
+        <v>12388.541746691</v>
       </c>
       <c r="F13" t="n">
-        <v>13303.262907437</v>
+        <v>13303.1843102284</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>11691</v>
       </c>
       <c r="I13" t="n">
-        <v>-1029.5038958991</v>
+        <v>-1030.25918441628</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>9550.65943491708</v>
+        <v>9549.86491258295</v>
       </c>
       <c r="C14" t="n">
-        <v>7713.03652975637</v>
+        <v>7711.79263331364</v>
       </c>
       <c r="D14" t="n">
-        <v>6740.25772490059</v>
+        <v>6738.77594417428</v>
       </c>
       <c r="E14" t="n">
-        <v>11388.2823400778</v>
+        <v>11387.9371918523</v>
       </c>
       <c r="F14" t="n">
-        <v>12361.0611449336</v>
+        <v>12360.9538809916</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>10284</v>
       </c>
       <c r="I14" t="n">
-        <v>-733.340565082915</v>
+        <v>-734.135087417051</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>7219.62524286063</v>
+        <v>7218.14511727039</v>
       </c>
       <c r="C15" t="n">
-        <v>5314.79701654783</v>
+        <v>5312.90894062885</v>
       </c>
       <c r="D15" t="n">
-        <v>4306.44186367925</v>
+        <v>4304.33783190116</v>
       </c>
       <c r="E15" t="n">
-        <v>9124.45346917343</v>
+        <v>9123.38129391192</v>
       </c>
       <c r="F15" t="n">
-        <v>10132.808622042</v>
+        <v>10131.9524026396</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>7650</v>
       </c>
       <c r="I15" t="n">
-        <v>-430.374757139371</v>
+        <v>-431.854882729614</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>9163.59375541315</v>
+        <v>9162.83570300084</v>
       </c>
       <c r="C16" t="n">
-        <v>7169.82650129757</v>
+        <v>7168.5836468923</v>
       </c>
       <c r="D16" t="n">
-        <v>6114.38987108779</v>
+        <v>6112.89037800981</v>
       </c>
       <c r="E16" t="n">
-        <v>11157.3610095287</v>
+        <v>11157.0877591094</v>
       </c>
       <c r="F16" t="n">
-        <v>12212.7976397385</v>
+        <v>12212.7810279919</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>10878</v>
       </c>
       <c r="I16" t="n">
-        <v>-1714.40624458685</v>
+        <v>-1715.16429699916</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>9318.84806863914</v>
+        <v>9318.06371068009</v>
       </c>
       <c r="C17" t="n">
-        <v>7232.87379452478</v>
+        <v>7231.48114712697</v>
       </c>
       <c r="D17" t="n">
-        <v>6128.62571640485</v>
+        <v>6126.91106002926</v>
       </c>
       <c r="E17" t="n">
-        <v>11404.8223427535</v>
+        <v>11404.6462742332</v>
       </c>
       <c r="F17" t="n">
-        <v>12509.0704208734</v>
+        <v>12509.2163613309</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>10874</v>
       </c>
       <c r="I17" t="n">
-        <v>-1555.15193136086</v>
+        <v>-1555.93628931991</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>10072.7847391952</v>
+        <v>10071.9757570368</v>
       </c>
       <c r="C18" t="n">
-        <v>7896.15773286594</v>
+        <v>7894.61438875209</v>
       </c>
       <c r="D18" t="n">
-        <v>6743.92099708763</v>
+        <v>6741.98890523709</v>
       </c>
       <c r="E18" t="n">
-        <v>12249.4117455245</v>
+        <v>12249.3371253214</v>
       </c>
       <c r="F18" t="n">
-        <v>13401.6484813029</v>
+        <v>13401.9626088364</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>10773</v>
       </c>
       <c r="I18" t="n">
-        <v>-700.21526080476</v>
+        <v>-701.024242963233</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>10020.13423941</v>
+        <v>10018.9863801362</v>
       </c>
       <c r="C19" t="n">
-        <v>7766.20761302931</v>
+        <v>7764.27815906087</v>
       </c>
       <c r="D19" t="n">
-        <v>6573.05093018339</v>
+        <v>6570.70772497646</v>
       </c>
       <c r="E19" t="n">
-        <v>12274.0608657907</v>
+        <v>12273.6946012115</v>
       </c>
       <c r="F19" t="n">
-        <v>13467.2175486366</v>
+        <v>13467.2650352959</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>10950</v>
       </c>
       <c r="I19" t="n">
-        <v>-929.865760589988</v>
+        <v>-931.013619863832</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>11032.9142479884</v>
+        <v>11032.1342015595</v>
       </c>
       <c r="C20" t="n">
-        <v>8709.29349620412</v>
+        <v>8707.73061154937</v>
       </c>
       <c r="D20" t="n">
-        <v>7479.24297195847</v>
+        <v>7477.2656777795</v>
       </c>
       <c r="E20" t="n">
-        <v>13356.5349997726</v>
+        <v>13356.5377915697</v>
       </c>
       <c r="F20" t="n">
-        <v>14586.5855240183</v>
+        <v>14587.0027253395</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>11747</v>
       </c>
       <c r="I20" t="n">
-        <v>-714.085752011639</v>
+        <v>-714.865798440478</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>11201.6669414924</v>
+        <v>11201.0123468213</v>
       </c>
       <c r="C21" t="n">
-        <v>8808.47057971823</v>
+        <v>8807.02474640774</v>
       </c>
       <c r="D21" t="n">
-        <v>7541.58895234307</v>
+        <v>7539.7242625981</v>
       </c>
       <c r="E21" t="n">
-        <v>13594.8633032665</v>
+        <v>13594.9999472348</v>
       </c>
       <c r="F21" t="n">
-        <v>14861.7449306417</v>
+        <v>14862.3004310445</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>12019</v>
       </c>
       <c r="I21" t="n">
-        <v>-817.333058507611</v>
+        <v>-817.98765317871</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>10599.0642046048</v>
+        <v>10598.2047752755</v>
       </c>
       <c r="C22" t="n">
-        <v>8132.94092801273</v>
+        <v>8131.2353125513</v>
       </c>
       <c r="D22" t="n">
-        <v>6827.45412389584</v>
+        <v>6825.30056455428</v>
       </c>
       <c r="E22" t="n">
-        <v>13065.1874811969</v>
+        <v>13065.1742379998</v>
       </c>
       <c r="F22" t="n">
-        <v>14370.6742853138</v>
+        <v>14371.1089859968</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>11744</v>
       </c>
       <c r="I22" t="n">
-        <v>-1144.93579539519</v>
+        <v>-1145.79522472445</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>10256.2740656866</v>
+        <v>10255.5253028651</v>
       </c>
       <c r="C23" t="n">
-        <v>7717.28750939961</v>
+        <v>7715.60980725787</v>
       </c>
       <c r="D23" t="n">
-        <v>6373.22921494023</v>
+        <v>6371.05976202678</v>
       </c>
       <c r="E23" t="n">
-        <v>12795.2606219737</v>
+        <v>12795.4407984724</v>
       </c>
       <c r="F23" t="n">
-        <v>14139.318916433</v>
+        <v>14139.9908437035</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>10720</v>
       </c>
       <c r="I23" t="n">
-        <v>-463.725934313368</v>
+        <v>-464.47469713485</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>10578.2175149721</v>
+        <v>10577.4763753872</v>
       </c>
       <c r="C24" t="n">
-        <v>7970.7251604816</v>
+        <v>7968.99068691884</v>
       </c>
       <c r="D24" t="n">
-        <v>6590.40208704343</v>
+        <v>6588.14177423634</v>
       </c>
       <c r="E24" t="n">
-        <v>13185.7098694625</v>
+        <v>13185.9620638555</v>
       </c>
       <c r="F24" t="n">
-        <v>14566.0329429007</v>
+        <v>14566.810976538</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>11119</v>
       </c>
       <c r="I24" t="n">
-        <v>-540.782485027938</v>
+        <v>-541.52362461283</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>10626.3625271436</v>
+        <v>10625.415952741</v>
       </c>
       <c r="C25" t="n">
-        <v>7955.07929735237</v>
+        <v>7953.1120169546</v>
       </c>
       <c r="D25" t="n">
-        <v>6540.98737435235</v>
+        <v>6538.47976483957</v>
       </c>
       <c r="E25" t="n">
-        <v>13297.6457569348</v>
+        <v>13297.7198885273</v>
       </c>
       <c r="F25" t="n">
-        <v>14711.7376799348</v>
+        <v>14712.3521406424</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>11264</v>
       </c>
       <c r="I25" t="n">
-        <v>-637.637472856417</v>
+        <v>-638.584047259035</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>9514.66904805897</v>
+        <v>9513.75242242651</v>
       </c>
       <c r="C26" t="n">
-        <v>6736.81785256018</v>
+        <v>6734.83512395733</v>
       </c>
       <c r="D26" t="n">
-        <v>5266.3122562076</v>
+        <v>5263.7651667827</v>
       </c>
       <c r="E26" t="n">
-        <v>12292.5202435578</v>
+        <v>12292.6697208957</v>
       </c>
       <c r="F26" t="n">
-        <v>13763.0258399103</v>
+        <v>13763.7396780703</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>9273</v>
       </c>
       <c r="I26" t="n">
-        <v>241.669048058968</v>
+        <v>240.752422426513</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>7181.02010181142</v>
+        <v>7179.38668467302</v>
       </c>
       <c r="C27" t="n">
-        <v>4332.88710470456</v>
+        <v>4330.16524785584</v>
       </c>
       <c r="D27" t="n">
-        <v>2825.17656996152</v>
+        <v>2821.87852793488</v>
       </c>
       <c r="E27" t="n">
-        <v>10029.1530989183</v>
+        <v>10028.6081214902</v>
       </c>
       <c r="F27" t="n">
-        <v>11536.8636336613</v>
+        <v>11536.8948414112</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>6979</v>
       </c>
       <c r="I27" t="n">
-        <v>202.020101811424</v>
+        <v>200.386684673022</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>9123.83572168115</v>
+        <v>9122.85003096344</v>
       </c>
       <c r="C28" t="n">
-        <v>6191.99737561356</v>
+        <v>6189.82335159804</v>
       </c>
       <c r="D28" t="n">
-        <v>4639.97590575245</v>
+        <v>4637.17281608805</v>
       </c>
       <c r="E28" t="n">
-        <v>12055.6740677487</v>
+        <v>12055.8767103288</v>
       </c>
       <c r="F28" t="n">
-        <v>13607.6955376098</v>
+        <v>13608.5272458388</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>8886</v>
       </c>
       <c r="I28" t="n">
-        <v>237.835721681151</v>
+        <v>236.85003096344</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>9280.20801097634</v>
+        <v>9279.16847815137</v>
       </c>
       <c r="C29" t="n">
-        <v>6263.25879097663</v>
+        <v>6260.93072654131</v>
       </c>
       <c r="D29" t="n">
-        <v>4666.18234602166</v>
+        <v>4663.17217415482</v>
       </c>
       <c r="E29" t="n">
-        <v>12297.157230976</v>
+        <v>12297.4062297614</v>
       </c>
       <c r="F29" t="n">
-        <v>13894.233675931</v>
+        <v>13895.1647821479</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>7821</v>
       </c>
       <c r="I29" t="n">
-        <v>1459.20801097634</v>
+        <v>1458.16847815137</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>10035.7523536927</v>
+        <v>10034.7260101509</v>
       </c>
       <c r="C30" t="n">
-        <v>6931.9640496943</v>
+        <v>6929.55207468877</v>
       </c>
       <c r="D30" t="n">
-        <v>5288.91777049869</v>
+        <v>5285.7722865042</v>
       </c>
       <c r="E30" t="n">
-        <v>13139.5406576911</v>
+        <v>13139.8999456131</v>
       </c>
       <c r="F30" t="n">
-        <v>14782.5869368867</v>
+        <v>14783.6797337977</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>8395</v>
       </c>
       <c r="I30" t="n">
-        <v>1640.75235369271</v>
+        <v>1639.72601015093</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>9983.38344233699</v>
+        <v>9982.06533496232</v>
       </c>
       <c r="C31" t="n">
-        <v>6800.50022082541</v>
+        <v>6797.73734687189</v>
       </c>
       <c r="D31" t="n">
-        <v>5115.58362149365</v>
+        <v>5112.05593431216</v>
       </c>
       <c r="E31" t="n">
-        <v>13166.2666638486</v>
+        <v>13166.3933230528</v>
       </c>
       <c r="F31" t="n">
-        <v>14851.1832631803</v>
+        <v>14852.0747356125</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>8988</v>
       </c>
       <c r="I31" t="n">
-        <v>995.383442336994</v>
+        <v>994.065334962323</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>10995.1820962841</v>
+        <v>10994.235506335</v>
       </c>
       <c r="C32" t="n">
-        <v>7739.08932028672</v>
+        <v>7736.6559480158</v>
       </c>
       <c r="D32" t="n">
-        <v>6015.41792381094</v>
+        <v>6012.19749652126</v>
       </c>
       <c r="E32" t="n">
-        <v>14251.2748722814</v>
+        <v>14251.8150646541</v>
       </c>
       <c r="F32" t="n">
-        <v>15974.9462687572</v>
+        <v>15976.2735161487</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>9263</v>
       </c>
       <c r="I32" t="n">
-        <v>1732.18209628406</v>
+        <v>1731.23550633497</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>11163.0582957641</v>
+        <v>11162.2038159308</v>
       </c>
       <c r="C33" t="n">
-        <v>7835.33387631035</v>
+        <v>7832.94812462262</v>
       </c>
       <c r="D33" t="n">
-        <v>6073.74297833309</v>
+        <v>6070.54662029069</v>
       </c>
       <c r="E33" t="n">
-        <v>14490.7827152179</v>
+        <v>14491.4595072389</v>
       </c>
       <c r="F33" t="n">
-        <v>16252.3736131952</v>
+        <v>16253.8610115708</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>9275</v>
       </c>
       <c r="I33" t="n">
-        <v>1888.05829576413</v>
+        <v>1887.20381593076</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>10560.5732762524</v>
+        <v>10559.4881155523</v>
       </c>
       <c r="C34" t="n">
-        <v>7159.51551570079</v>
+        <v>7156.8356608901</v>
       </c>
       <c r="D34" t="n">
-        <v>5359.10429190535</v>
+        <v>5355.58025702565</v>
       </c>
       <c r="E34" t="n">
-        <v>13961.6310368041</v>
+        <v>13962.1405702144</v>
       </c>
       <c r="F34" t="n">
-        <v>15762.0422605995</v>
+        <v>15763.3959740789</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>8598</v>
       </c>
       <c r="I34" t="n">
-        <v>1962.57327625245</v>
+        <v>1961.48811555226</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>10218.5036866576</v>
+        <v>10217.5367041499</v>
       </c>
       <c r="C35" t="n">
-        <v>6743.6741491312</v>
+        <v>6741.03742959875</v>
       </c>
       <c r="D35" t="n">
-        <v>4904.21050558411</v>
+        <v>4900.68988066347</v>
       </c>
       <c r="E35" t="n">
-        <v>13693.333224184</v>
+        <v>13694.0359787011</v>
       </c>
       <c r="F35" t="n">
-        <v>15532.7968677311</v>
+        <v>15534.3835276364</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>7959</v>
       </c>
       <c r="I35" t="n">
-        <v>2259.50368665761</v>
+        <v>2258.53670414992</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>10540.8536380959</v>
+        <v>10539.9191143134</v>
       </c>
       <c r="C36" t="n">
-        <v>6994.67164104449</v>
+        <v>6991.9995839208</v>
       </c>
       <c r="D36" t="n">
-        <v>5117.43628704187</v>
+        <v>5113.84443532792</v>
       </c>
       <c r="E36" t="n">
-        <v>14087.0356351472</v>
+        <v>14087.838644706</v>
       </c>
       <c r="F36" t="n">
-        <v>15964.2709891498</v>
+        <v>15965.9937932989</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>7630</v>
       </c>
       <c r="I36" t="n">
-        <v>2910.85363809585</v>
+        <v>2909.9191143134</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>10588.7502398455</v>
+        <v>10587.6217296454</v>
       </c>
       <c r="C37" t="n">
-        <v>6974.65727770849</v>
+        <v>6971.74104994379</v>
       </c>
       <c r="D37" t="n">
-        <v>5061.47203035884</v>
+        <v>5057.60944208072</v>
       </c>
       <c r="E37" t="n">
-        <v>14202.8432019824</v>
+        <v>14203.5024093471</v>
       </c>
       <c r="F37" t="n">
-        <v>16116.0284493321</v>
+        <v>16117.6340172102</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>6027</v>
       </c>
       <c r="I37" t="n">
-        <v>4561.75023984545</v>
+        <v>4560.62172964544</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>9476.59010946179</v>
+        <v>9475.48060427406</v>
       </c>
       <c r="C38" t="n">
-        <v>5757.58893157749</v>
+        <v>5754.61825500133</v>
       </c>
       <c r="D38" t="n">
-        <v>3788.86862943089</v>
+        <v>3784.91270823583</v>
       </c>
       <c r="E38" t="n">
-        <v>13195.5912873461</v>
+        <v>13196.3429535468</v>
       </c>
       <c r="F38" t="n">
-        <v>15164.3115894927</v>
+        <v>15166.0485003123</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>4762</v>
       </c>
       <c r="I38" t="n">
-        <v>4714.59010946179</v>
+        <v>4713.48060427406</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>7142.80364653582</v>
+        <v>7140.96110647731</v>
       </c>
       <c r="C39" t="n">
-        <v>3350.87805198494</v>
+        <v>3347.13304387134</v>
       </c>
       <c r="D39" t="n">
-        <v>1343.55389553803</v>
+        <v>1338.80178167073</v>
       </c>
       <c r="E39" t="n">
-        <v>10934.7292410867</v>
+        <v>10934.7891690833</v>
       </c>
       <c r="F39" t="n">
-        <v>12942.0533975336</v>
+        <v>12943.1204312839</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>6589</v>
       </c>
       <c r="I39" t="n">
-        <v>553.803646535824</v>
+        <v>551.961106477311</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>9085.86608492528</v>
+        <v>9084.66834726562</v>
       </c>
       <c r="C40" t="n">
-        <v>5209.24793280471</v>
+        <v>5206.04868848918</v>
       </c>
       <c r="D40" t="n">
-        <v>3157.09024456983</v>
+        <v>3152.83146663228</v>
       </c>
       <c r="E40" t="n">
-        <v>12962.4842370458</v>
+        <v>12963.2880060421</v>
       </c>
       <c r="F40" t="n">
-        <v>15014.6419252807</v>
+        <v>15016.5052278989</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>8029</v>
       </c>
       <c r="I40" t="n">
-        <v>1056.86608492528</v>
+        <v>1055.66834726562</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>9242.50749420753</v>
+        <v>9241.2662000802</v>
       </c>
       <c r="C41" t="n">
-        <v>5279.30666174293</v>
+        <v>5275.96407394736</v>
       </c>
       <c r="D41" t="n">
-        <v>3181.31487116326</v>
+        <v>3176.85992569217</v>
       </c>
       <c r="E41" t="n">
-        <v>13205.7083266721</v>
+        <v>13206.5683262131</v>
       </c>
       <c r="F41" t="n">
-        <v>15303.7001172518</v>
+        <v>15305.6724744682</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>7931</v>
       </c>
       <c r="I41" t="n">
-        <v>1311.50749420753</v>
+        <v>1310.2662000802</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>9998.05551179649</v>
+        <v>9996.83672525759</v>
       </c>
       <c r="C42" t="n">
-        <v>5946.09451357659</v>
+        <v>5942.66858665991</v>
       </c>
       <c r="D42" t="n">
-        <v>3801.11592950422</v>
+        <v>3796.52161304863</v>
       </c>
       <c r="E42" t="n">
-        <v>14050.0165100164</v>
+        <v>14051.0048638553</v>
       </c>
       <c r="F42" t="n">
-        <v>16194.9950940888</v>
+        <v>16197.1518374665</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>9077</v>
       </c>
       <c r="I42" t="n">
-        <v>921.055511796492</v>
+        <v>919.836725257586</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>9945.49256850535</v>
+        <v>9943.98067180302</v>
       </c>
       <c r="C43" t="n">
-        <v>5811.48985497258</v>
+        <v>5807.69295240418</v>
       </c>
       <c r="D43" t="n">
-        <v>3623.08101023779</v>
+        <v>3618.07449863085</v>
       </c>
       <c r="E43" t="n">
-        <v>14079.4952820381</v>
+        <v>14080.2683912019</v>
       </c>
       <c r="F43" t="n">
-        <v>16267.9041267729</v>
+        <v>16269.8868449752</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>8863</v>
       </c>
       <c r="I43" t="n">
-        <v>1082.49256850535</v>
+        <v>1080.98067180302</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>10957.1559267488</v>
+        <v>10956.0075709662</v>
       </c>
       <c r="C44" t="n">
-        <v>6746.57480528806</v>
+        <v>6743.08165395598</v>
       </c>
       <c r="D44" t="n">
-        <v>4517.62780012182</v>
+        <v>4512.89338900465</v>
       </c>
       <c r="E44" t="n">
-        <v>15167.7370482095</v>
+        <v>15168.9334879765</v>
       </c>
       <c r="F44" t="n">
-        <v>17396.6840533757</v>
+        <v>17399.1217529278</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>10104</v>
       </c>
       <c r="I44" t="n">
-        <v>853.155926748766</v>
+        <v>852.007570966229</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>11125.0813631004</v>
+        <v>11124.0206257765</v>
       </c>
       <c r="C45" t="n">
-        <v>6839.44969741911</v>
+        <v>6835.98816946108</v>
       </c>
       <c r="D45" t="n">
-        <v>4570.77333401203</v>
+        <v>4566.0409042617</v>
       </c>
       <c r="E45" t="n">
-        <v>15410.7130287818</v>
+        <v>15412.0530820919</v>
       </c>
       <c r="F45" t="n">
-        <v>17679.3893921888</v>
+        <v>17682.0003472913</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>10924</v>
       </c>
       <c r="I45" t="n">
-        <v>201.081363100433</v>
+        <v>200.020625776491</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>10522.7288037819</v>
+        <v>10521.440308687</v>
       </c>
       <c r="C46" t="n">
-        <v>6160.34933128612</v>
+        <v>6156.58942218149</v>
       </c>
       <c r="D46" t="n">
-        <v>3851.04513309387</v>
+        <v>3845.9769364402</v>
       </c>
       <c r="E46" t="n">
-        <v>14885.1082762778</v>
+        <v>14886.2911951925</v>
       </c>
       <c r="F46" t="n">
-        <v>17194.41247447</v>
+        <v>17196.9036809338</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>10147</v>
       </c>
       <c r="I46" t="n">
-        <v>375.728803781936</v>
+        <v>374.44030868699</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>10180.7137859898</v>
+        <v>10179.5488790046</v>
       </c>
       <c r="C47" t="n">
-        <v>5740.9201937634</v>
+        <v>5737.19989516249</v>
       </c>
       <c r="D47" t="n">
-        <v>3390.6354360347</v>
+        <v>3385.56239482547</v>
       </c>
       <c r="E47" t="n">
-        <v>14620.5073782162</v>
+        <v>14621.8978628467</v>
       </c>
       <c r="F47" t="n">
-        <v>16970.7921359449</v>
+        <v>16973.5353631837</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>10328</v>
       </c>
       <c r="I47" t="n">
-        <v>-147.286214010204</v>
+        <v>-148.451120995431</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>10503.0042965122</v>
+        <v>10501.8733786213</v>
       </c>
       <c r="C48" t="n">
-        <v>5987.85906474755</v>
+        <v>5984.091587384</v>
       </c>
       <c r="D48" t="n">
-        <v>3597.6855585449</v>
+        <v>3592.52237090499</v>
       </c>
       <c r="E48" t="n">
-        <v>15018.1495282768</v>
+        <v>15019.6551698587</v>
       </c>
       <c r="F48" t="n">
-        <v>17408.3230344795</v>
+        <v>17411.2243863377</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>10065</v>
       </c>
       <c r="I48" t="n">
-        <v>438.004296512192</v>
+        <v>436.873378621345</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>10550.8204182961</v>
+        <v>10549.4924905258</v>
       </c>
       <c r="C49" t="n">
-        <v>5963.51346751659</v>
+        <v>5959.48359139187</v>
       </c>
       <c r="D49" t="n">
-        <v>3535.13985476191</v>
+        <v>3529.67965357775</v>
       </c>
       <c r="E49" t="n">
-        <v>15138.1273690755</v>
+        <v>15139.5013896598</v>
       </c>
       <c r="F49" t="n">
-        <v>17566.5009818302</v>
+        <v>17569.3053274739</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>9414</v>
       </c>
       <c r="I49" t="n">
-        <v>1136.82041829606</v>
+        <v>1135.49249052582</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
